--- a/data/trans_bre/P3A_R1-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-7.377103483290515</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-6.161078258726449</v>
+        <v>-6.161078258726461</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008731484511547368</v>
@@ -649,7 +649,7 @@
         <v>-0.1845168710329712</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1582977630771481</v>
+        <v>-0.1582977630771484</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.227637719189484</v>
+        <v>-6.771729732837764</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.64290247071484</v>
+        <v>-12.77273581971025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.00590425514703</v>
+        <v>-13.9160108209764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.00013850870242</v>
+        <v>-11.16443488772364</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2072100164856397</v>
+        <v>-0.221404604651105</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3240295877498057</v>
+        <v>-0.3261763587526603</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3302250610614406</v>
+        <v>-0.3285375366914783</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2827427726562584</v>
+        <v>-0.2676673331869063</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.824648636187335</v>
+        <v>6.619003207248674</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.411477833471785</v>
+        <v>2.132645376792489</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.08349426252122089</v>
+        <v>0.4692949844741552</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.2289551814594171</v>
+        <v>-0.2662064128764292</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2748070482768337</v>
+        <v>0.2626947469165306</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04405756987692646</v>
+        <v>0.06746818448857693</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.005873624835050245</v>
+        <v>0.01229711198020815</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.005399409021804078</v>
+        <v>-0.005308324824168626</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-14.75780242747786</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-7.495830042721102</v>
+        <v>-7.495830042721091</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1691081142301805</v>
@@ -749,7 +749,7 @@
         <v>-0.3095980082040452</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2144232350975514</v>
+        <v>-0.2144232350975511</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-11.10830277978117</v>
+        <v>-12.01092708762327</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-20.07014326004105</v>
+        <v>-19.67662454645116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-21.36540886048429</v>
+        <v>-21.93291681585461</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-13.89274787497585</v>
+        <v>-13.53191767656264</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3658061921983761</v>
+        <v>-0.3719975901860398</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5013383848421776</v>
+        <v>-0.4933401417862734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4245356537294985</v>
+        <v>-0.4258429237455681</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3551639199903016</v>
+        <v>-0.3545854150801118</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.195668576252617</v>
+        <v>1.172919616109222</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-5.437809736799088</v>
+        <v>-5.858695322787745</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-7.304180703551206</v>
+        <v>-6.955157029599912</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.722509215021915</v>
+        <v>-2.103611034059243</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09261428381021271</v>
+        <v>0.05172226952036869</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1551300324133086</v>
+        <v>-0.1578752746014671</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.165034412249053</v>
+        <v>-0.1648255780157321</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.05418109993485214</v>
+        <v>-0.0657844998349516</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>-0.2821523634903141</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2429609764883193</v>
+        <v>-0.2429609764883194</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-18.14282668721092</v>
+        <v>-18.79983758550962</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-18.42199140494124</v>
+        <v>-17.87588817911527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-19.03540897487147</v>
+        <v>-19.37841228442882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-13.99906157414177</v>
+        <v>-14.73456446042207</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6896036691539342</v>
+        <v>-0.7155252010350699</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5386783908066258</v>
+        <v>-0.5290196431738193</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4845344560853696</v>
+        <v>-0.4706436610471234</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4114964435362248</v>
+        <v>-0.4282326597386801</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-5.94140214966218</v>
+        <v>-5.847443905954068</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.696398297321481</v>
+        <v>-5.215638521538915</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.178362513174238</v>
+        <v>-2.555630282208555</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.136962038098232</v>
+        <v>-0.68834132203698</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2523982351542388</v>
+        <v>-0.260630126932119</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1886758066143188</v>
+        <v>-0.171223941205376</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.06555000754031853</v>
+        <v>-0.04545535918430603</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.03792829197791173</v>
+        <v>-0.02393487297651564</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-14.47442636907082</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.31274939993087</v>
+        <v>-3.312749399930875</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3568357972802588</v>
@@ -949,7 +949,7 @@
         <v>-0.4126522570610677</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1109899600440402</v>
+        <v>-0.1109899600440404</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-10.75623753639018</v>
+        <v>-10.97911269651075</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.81085907817339</v>
+        <v>-12.37169466261135</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-18.46164265241487</v>
+        <v>-18.1221902273459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.550823656382026</v>
+        <v>-7.809650987057408</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4807931999398183</v>
+        <v>-0.4919607968847913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4252256443057889</v>
+        <v>-0.4331418986920258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4972448018515295</v>
+        <v>-0.4993497656073909</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2335443497967935</v>
+        <v>-0.2409260907268152</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-3.97071116891136</v>
+        <v>-3.972827720949798</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-3.742791303752131</v>
+        <v>-4.634414642526952</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-10.49026541708503</v>
+        <v>-10.59868688387495</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4564491360969957</v>
+        <v>0.2300468603608468</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2012041645204252</v>
+        <v>-0.2055651416259911</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1571959193871879</v>
+        <v>-0.1755630163993645</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3128514420145832</v>
+        <v>-0.3165498105633477</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01882975092645955</v>
+        <v>0.009426137088295641</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-9.722618735851354</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.932822456041434</v>
+        <v>-2.932822456041431</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5388735969417822</v>
@@ -1049,7 +1049,7 @@
         <v>-0.4218088545874241</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1340942274845931</v>
+        <v>-0.134094227484593</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.23280439227255</v>
+        <v>-14.07951852128143</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.26031136177022</v>
+        <v>-17.27090197839347</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.9170125971607</v>
+        <v>-14.6784195328462</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.72311731170523</v>
+        <v>-7.592007992383378</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6877734377173914</v>
+        <v>-0.6876324436253411</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6521859530291183</v>
+        <v>-0.6465859186790023</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5446468186788291</v>
+        <v>-0.5691299381038294</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3028093739166649</v>
+        <v>-0.2984086004887971</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.895105859538372</v>
+        <v>-4.366387510114483</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.429272496987394</v>
+        <v>-8.10788890429388</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.428692440731747</v>
+        <v>-5.764189601086509</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.185569539579392</v>
+        <v>1.264036801870655</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.3296481782659083</v>
+        <v>-0.3106327837437843</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.3991842233507374</v>
+        <v>-0.3981287434532356</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.2676105831753214</v>
+        <v>-0.2804731184353927</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.06364986553098022</v>
+        <v>0.07021689009017044</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.30746966436803</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.536306610252238</v>
+        <v>5.53630661025224</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>6.698136349649156</v>
@@ -1149,7 +1149,7 @@
         <v>5.786466452975093</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.899994304394804</v>
+        <v>1.899994304394805</v>
       </c>
     </row>
     <row r="20">
@@ -1160,26 +1160,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.356996281566537</v>
+        <v>3.206225123969771</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.636266126201224</v>
+        <v>4.753121290546185</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.814149168014482</v>
+        <v>5.774294655353403</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.851317556553415</v>
+        <v>1.679102669915281</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9685144004464066</v>
+        <v>1.204529911327349</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>1.684011220259429</v>
+        <v>1.516122199671616</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1840856506173795</v>
+        <v>0.221448913290806</v>
       </c>
     </row>
     <row r="21">
@@ -1190,24 +1190,24 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.768207121440257</v>
+        <v>6.864968787642827</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.113906823859665</v>
+        <v>8.212858915839101</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.4494230903059</v>
+        <v>10.38541163565552</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.037426209296372</v>
+        <v>8.168817977285881</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>26.51932228244255</v>
+        <v>25.74301655093927</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>6.869887965866587</v>
+        <v>8.048584717638988</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1231,7 @@
         <v>-13.95233653978595</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-7.680894739240585</v>
+        <v>-7.680894739240587</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.4255547761665883</v>
@@ -1243,7 +1243,7 @@
         <v>-0.4293678856098224</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.2640578907383857</v>
+        <v>-0.2640578907383858</v>
       </c>
     </row>
     <row r="23">
@@ -1254,28 +1254,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.78900641579082</v>
+        <v>-10.71176677920015</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.7281756751588</v>
+        <v>-14.68146899156241</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.17336005248572</v>
+        <v>-15.93769603274902</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.670680937684221</v>
+        <v>-9.727363142575463</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4889793604331975</v>
+        <v>-0.4865165388459701</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.5146717694818556</v>
+        <v>-0.5106530236974366</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4790499029043683</v>
+        <v>-0.4801269047310963</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3165326163281798</v>
+        <v>-0.3197493795808747</v>
       </c>
     </row>
     <row r="24">
@@ -1286,28 +1286,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-7.150705535955907</v>
+        <v>-7.015619846479887</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-10.48076727436901</v>
+        <v>-10.66048149054485</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-11.89121542787867</v>
+        <v>-11.79234424786637</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-5.658879052966011</v>
+        <v>-5.79823188501368</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.3582232574800462</v>
+        <v>-0.3561301833923057</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.4028670809388237</v>
+        <v>-0.4011201582249548</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.3765532872060334</v>
+        <v>-0.3778818580644639</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.2027618776099543</v>
+        <v>-0.2053999806856686</v>
       </c>
     </row>
     <row r="25">
